--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H2">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3213260000000001</v>
+        <v>1.101036666666667</v>
       </c>
       <c r="N2">
-        <v>0.9639780000000001</v>
+        <v>3.30311</v>
       </c>
       <c r="O2">
-        <v>0.001759408141451291</v>
+        <v>0.007197401111328883</v>
       </c>
       <c r="P2">
-        <v>0.001759408141451291</v>
+        <v>0.007197401111328884</v>
       </c>
       <c r="Q2">
-        <v>0.5008071358640001</v>
+        <v>1.616880419268889</v>
       </c>
       <c r="R2">
-        <v>4.507264222776</v>
+        <v>14.55192377342</v>
       </c>
       <c r="S2">
-        <v>1.001472913797243E-05</v>
+        <v>3.683831023832127E-05</v>
       </c>
       <c r="T2">
-        <v>1.001472913797243E-05</v>
+        <v>3.683831023832127E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H3">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.331193</v>
       </c>
       <c r="O3">
-        <v>0.0006044781733521692</v>
+        <v>0.0007216619689517899</v>
       </c>
       <c r="P3">
-        <v>0.0006044781733521691</v>
+        <v>0.00072166196895179</v>
       </c>
       <c r="Q3">
-        <v>0.1720618289506666</v>
+        <v>0.1621197830828889</v>
       </c>
       <c r="R3">
-        <v>1.548556460556</v>
+        <v>1.459078047746</v>
       </c>
       <c r="S3">
-        <v>3.440750916921861E-06</v>
+        <v>3.693667629222259E-06</v>
       </c>
       <c r="T3">
-        <v>3.44075091692186E-06</v>
+        <v>3.693667629222259E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H4">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.258402333333333</v>
+        <v>0.1677316666666666</v>
       </c>
       <c r="N4">
-        <v>9.775207</v>
+        <v>0.5031949999999999</v>
       </c>
       <c r="O4">
-        <v>0.01784125652262982</v>
+        <v>0.00109645039136303</v>
       </c>
       <c r="P4">
-        <v>0.01784125652262982</v>
+        <v>0.00109645039136303</v>
       </c>
       <c r="Q4">
-        <v>5.078428574249332</v>
+        <v>0.2463151825322221</v>
       </c>
       <c r="R4">
-        <v>45.70585716824399</v>
+        <v>2.21683664279</v>
       </c>
       <c r="S4">
-        <v>0.0001015542371014816</v>
+        <v>5.611939511663876E-06</v>
       </c>
       <c r="T4">
-        <v>0.0001015542371014816</v>
+        <v>5.611939511663878E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H5">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I5">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J5">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>178.9428813333334</v>
+        <v>151.5978113333333</v>
       </c>
       <c r="N5">
-        <v>536.8286440000001</v>
+        <v>454.793434</v>
       </c>
       <c r="O5">
-        <v>0.9797948571625668</v>
+        <v>0.9909844865283564</v>
       </c>
       <c r="P5">
-        <v>0.9797948571625668</v>
+        <v>0.9909844865283564</v>
       </c>
       <c r="Q5">
-        <v>278.8939329024054</v>
+        <v>222.6224976602831</v>
       </c>
       <c r="R5">
-        <v>2510.045396121648</v>
+        <v>2003.602478942548</v>
       </c>
       <c r="S5">
-        <v>0.00557709145142838</v>
+        <v>0.005072135537733678</v>
       </c>
       <c r="T5">
-        <v>0.00557709145142838</v>
+        <v>0.005072135537733678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J6">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3213260000000001</v>
+        <v>1.101036666666667</v>
       </c>
       <c r="N6">
-        <v>0.9639780000000001</v>
+        <v>3.30311</v>
       </c>
       <c r="O6">
-        <v>0.001759408141451291</v>
+        <v>0.007197401111328883</v>
       </c>
       <c r="P6">
-        <v>0.001759408141451291</v>
+        <v>0.007197401111328884</v>
       </c>
       <c r="Q6">
-        <v>83.40034731268936</v>
+        <v>285.7746973603312</v>
       </c>
       <c r="R6">
-        <v>750.6031258142042</v>
+        <v>2571.972276242981</v>
       </c>
       <c r="S6">
-        <v>0.001667771540252628</v>
+        <v>0.006510968179318104</v>
       </c>
       <c r="T6">
-        <v>0.001667771540252628</v>
+        <v>0.006510968179318104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J7">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.331193</v>
       </c>
       <c r="O7">
-        <v>0.0006044781733521692</v>
+        <v>0.0007216619689517899</v>
       </c>
       <c r="P7">
-        <v>0.0006044781733521691</v>
+        <v>0.00072166196895179</v>
       </c>
       <c r="Q7">
-        <v>28.65377760439711</v>
+        <v>28.65377760439712</v>
       </c>
       <c r="R7">
         <v>257.883998439574</v>
       </c>
       <c r="S7">
-        <v>0.0005729946738731471</v>
+        <v>0.0006528353836877672</v>
       </c>
       <c r="T7">
-        <v>0.0005729946738731469</v>
+        <v>0.0006528353836877673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I8">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J8">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>3.258402333333333</v>
+        <v>0.1677316666666666</v>
       </c>
       <c r="N8">
-        <v>9.775207</v>
+        <v>0.5031949999999999</v>
       </c>
       <c r="O8">
-        <v>0.01784125652262982</v>
+        <v>0.00109645039136303</v>
       </c>
       <c r="P8">
-        <v>0.01784125652262982</v>
+        <v>0.00109645039136303</v>
       </c>
       <c r="Q8">
-        <v>845.7201915950697</v>
+        <v>43.53485013766778</v>
       </c>
       <c r="R8">
-        <v>7611.481724355626</v>
+        <v>391.81365123901</v>
       </c>
       <c r="S8">
-        <v>0.01691201670025485</v>
+        <v>0.0009918793600552124</v>
       </c>
       <c r="T8">
-        <v>0.01691201670025485</v>
+        <v>0.0009918793600552126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I9">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J9">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>178.9428813333334</v>
+        <v>151.5978113333333</v>
       </c>
       <c r="N9">
-        <v>536.8286440000001</v>
+        <v>454.793434</v>
       </c>
       <c r="O9">
-        <v>0.9797948571625668</v>
+        <v>0.9909844865283564</v>
       </c>
       <c r="P9">
-        <v>0.9797948571625668</v>
+        <v>0.9909844865283564</v>
       </c>
       <c r="Q9">
-        <v>46444.72732469006</v>
+        <v>39347.29874657997</v>
       </c>
       <c r="R9">
-        <v>418002.5459222105</v>
+        <v>354125.6887192196</v>
       </c>
       <c r="S9">
-        <v>0.9287634515057499</v>
+        <v>0.8964719845650942</v>
       </c>
       <c r="T9">
-        <v>0.9287634515057498</v>
+        <v>0.8964719845650942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H10">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3213260000000001</v>
+        <v>1.101036666666667</v>
       </c>
       <c r="N10">
-        <v>0.9639780000000001</v>
+        <v>3.30311</v>
       </c>
       <c r="O10">
-        <v>0.001759408141451291</v>
+        <v>0.007197401111328883</v>
       </c>
       <c r="P10">
-        <v>0.001759408141451291</v>
+        <v>0.007197401111328884</v>
       </c>
       <c r="Q10">
-        <v>0.1649458471453334</v>
+        <v>0.6485913393555556</v>
       </c>
       <c r="R10">
-        <v>1.484512624308</v>
+        <v>5.8373220542</v>
       </c>
       <c r="S10">
-        <v>3.298451366400868E-06</v>
+        <v>1.477722699361531E-05</v>
       </c>
       <c r="T10">
-        <v>3.298451366400867E-06</v>
+        <v>1.477722699361531E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H11">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I11">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J11">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.331193</v>
       </c>
       <c r="O11">
-        <v>0.0006044781733521692</v>
+        <v>0.0007216619689517899</v>
       </c>
       <c r="P11">
-        <v>0.0006044781733521691</v>
+        <v>0.00072166196895179</v>
       </c>
       <c r="Q11">
-        <v>0.0566702870331111</v>
+        <v>0.06503232149555556</v>
       </c>
       <c r="R11">
-        <v>0.5100325832979999</v>
+        <v>0.5852908934600001</v>
       </c>
       <c r="S11">
-        <v>1.133245782987166E-06</v>
+        <v>1.481668530474745E-06</v>
       </c>
       <c r="T11">
-        <v>1.133245782987166E-06</v>
+        <v>1.481668530474745E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H12">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I12">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J12">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>3.258402333333333</v>
+        <v>0.1677316666666666</v>
       </c>
       <c r="N12">
-        <v>9.775207</v>
+        <v>0.5031949999999999</v>
       </c>
       <c r="O12">
-        <v>0.01784125652262982</v>
+        <v>0.00109645039136303</v>
       </c>
       <c r="P12">
-        <v>0.01784125652262982</v>
+        <v>0.00109645039136303</v>
       </c>
       <c r="Q12">
-        <v>1.672631325233555</v>
+        <v>0.09880625198888887</v>
       </c>
       <c r="R12">
-        <v>15.053681927102</v>
+        <v>0.8892562678999999</v>
       </c>
       <c r="S12">
-        <v>3.344790533186579E-05</v>
+        <v>2.25115928232855E-06</v>
       </c>
       <c r="T12">
-        <v>3.34479053318658E-05</v>
+        <v>2.25115928232855E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H13">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I13">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J13">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>178.9428813333334</v>
+        <v>151.5978113333333</v>
       </c>
       <c r="N13">
-        <v>536.8286440000001</v>
+        <v>454.793434</v>
       </c>
       <c r="O13">
-        <v>0.9797948571625668</v>
+        <v>0.9909844865283564</v>
       </c>
       <c r="P13">
-        <v>0.9797948571625668</v>
+        <v>0.9909844865283564</v>
       </c>
       <c r="Q13">
-        <v>91.85651068433157</v>
+        <v>89.30222804816445</v>
       </c>
       <c r="R13">
-        <v>826.7085961589841</v>
+        <v>803.72005243348</v>
       </c>
       <c r="S13">
-        <v>0.001836870939300404</v>
+        <v>0.002034623675694665</v>
       </c>
       <c r="T13">
-        <v>0.001836870939300404</v>
+        <v>0.002034623675694665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H14">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I14">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J14">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3213260000000001</v>
+        <v>1.101036666666667</v>
       </c>
       <c r="N14">
-        <v>0.9639780000000001</v>
+        <v>3.30311</v>
       </c>
       <c r="O14">
-        <v>0.001759408141451291</v>
+        <v>0.007197401111328883</v>
       </c>
       <c r="P14">
-        <v>0.001759408141451291</v>
+        <v>0.007197401111328884</v>
       </c>
       <c r="Q14">
-        <v>3.916723802369334</v>
+        <v>27.86294509137</v>
       </c>
       <c r="R14">
-        <v>35.250514221324</v>
+        <v>250.76650582233</v>
       </c>
       <c r="S14">
-        <v>7.83234206942896E-05</v>
+        <v>0.0006348173947788426</v>
       </c>
       <c r="T14">
-        <v>7.83234206942896E-05</v>
+        <v>0.0006348173947788427</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H15">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I15">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J15">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.331193</v>
       </c>
       <c r="O15">
-        <v>0.0006044781733521692</v>
+        <v>0.0007216619689517899</v>
       </c>
       <c r="P15">
-        <v>0.0006044781733521691</v>
+        <v>0.00072166196895179</v>
       </c>
       <c r="Q15">
-        <v>1.345665052810444</v>
+        <v>2.793734502831</v>
       </c>
       <c r="R15">
-        <v>12.110985475294</v>
+        <v>25.143610525479</v>
       </c>
       <c r="S15">
-        <v>2.690950277911306E-05</v>
+        <v>6.365124910432569E-05</v>
       </c>
       <c r="T15">
-        <v>2.690950277911306E-05</v>
+        <v>6.36512491043257E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H16">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I16">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J16">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>3.258402333333333</v>
+        <v>0.1677316666666666</v>
       </c>
       <c r="N16">
-        <v>9.775207</v>
+        <v>0.5031949999999999</v>
       </c>
       <c r="O16">
-        <v>0.01784125652262982</v>
+        <v>0.00109645039136303</v>
       </c>
       <c r="P16">
-        <v>0.01784125652262982</v>
+        <v>0.00109645039136303</v>
       </c>
       <c r="Q16">
-        <v>39.71748933065622</v>
+        <v>4.244634497564999</v>
       </c>
       <c r="R16">
-        <v>357.457403975906</v>
+        <v>38.20171047808499</v>
       </c>
       <c r="S16">
-        <v>0.0007942376799416215</v>
+        <v>9.670793251382475E-05</v>
       </c>
       <c r="T16">
-        <v>0.0007942376799416216</v>
+        <v>9.670793251382477E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H17">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I17">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J17">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>178.9428813333334</v>
+        <v>151.5978113333333</v>
       </c>
       <c r="N17">
-        <v>536.8286440000001</v>
+        <v>454.793434</v>
       </c>
       <c r="O17">
-        <v>0.9797948571625668</v>
+        <v>0.9909844865283564</v>
       </c>
       <c r="P17">
-        <v>0.9797948571625668</v>
+        <v>0.9909844865283564</v>
       </c>
       <c r="Q17">
-        <v>2181.17999347335</v>
+        <v>3836.349524980278</v>
       </c>
       <c r="R17">
-        <v>19630.61994126015</v>
+        <v>34527.1457248225</v>
       </c>
       <c r="S17">
-        <v>0.04361744326608805</v>
+        <v>0.0874057427498338</v>
       </c>
       <c r="T17">
-        <v>0.04361744326608805</v>
+        <v>0.0874057427498338</v>
       </c>
     </row>
   </sheetData>
